--- a/UniversalPhysics/大物编写统计.xlsx
+++ b/UniversalPhysics/大物编写统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qyxf\Universal-Physics\UniversalPhysics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807DF409-04CB-4BDB-8C51-DC8C88CB7805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D0FB0-DF08-467A-9288-ED80912BF9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>白玉琛，高旭帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +457,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -559,6 +563,9 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">

--- a/UniversalPhysics/大物编写统计.xlsx
+++ b/UniversalPhysics/大物编写统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qyxf\Universal-Physics\UniversalPhysics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D0FB0-DF08-467A-9288-ED80912BF9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB53FBF-AFC9-4466-B9FB-10DB67B22CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>手写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高旭帆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +135,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -166,12 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +452,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -507,7 +502,7 @@
       <c r="A2">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -521,7 +516,7 @@
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
@@ -535,13 +530,13 @@
       <c r="A4">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -549,29 +544,38 @@
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -579,13 +583,18 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
